--- a/src/main/java/vijay/projects/betavarient/LeetCode/SeventyFiveChallenge/Leetcode 75 Questions (NeetCode on yt).xlsx
+++ b/src/main/java/vijay/projects/betavarient/LeetCode/SeventyFiveChallenge/Leetcode 75 Questions (NeetCode on yt).xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gs1-vijayp\Documents\Learning\BetaVarient\src\main\java\vijay\projects\betavarient\LeetCode\SeventyFiveChallenge\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27AD14A-8432-4BAA-BB32-AC768F5DB0B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -970,129 +979,138 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color theme="4"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF9C5700"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1136,21 +1154,35 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -1160,14 +1192,18 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FFA5A5A5"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FFA5A5A5"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1176,9 +1212,11 @@
       <right style="thin">
         <color rgb="FFA5A5A5"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FFA5A5A5"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1193,104 +1231,71 @@
       <bottom style="thin">
         <color rgb="FFA5A5A5"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FFA5A5A5"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FFA5A5A5"/>
       </top>
       <bottom style="thin">
         <color rgb="FFA5A5A5"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="7" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="8" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="24">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1480,33 +1485,38 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="35.38"/>
-    <col customWidth="1" min="2" max="2" width="26.13"/>
-    <col customWidth="1" min="3" max="3" width="27.75"/>
-    <col customWidth="1" min="5" max="5" width="146.63"/>
+    <col min="1" max="1" width="35.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="146.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1517,7 +1527,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -1534,11 +1544,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="11" t="s">
@@ -1551,11 +1561,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="11" t="s">
@@ -1568,11 +1578,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -1585,11 +1595,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -1602,11 +1612,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="11" t="s">
@@ -1619,11 +1629,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -1636,11 +1646,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -1653,11 +1663,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="13" t="s">
@@ -1670,11 +1680,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -1687,11 +1697,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -1704,11 +1714,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="23" t="s">
         <v>49</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -1721,11 +1731,11 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="23" t="s">
         <v>49</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -1738,11 +1748,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="23" t="s">
         <v>49</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -1755,7 +1765,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>61</v>
       </c>
@@ -1772,7 +1782,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>65</v>
       </c>
@@ -1789,7 +1799,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>69</v>
       </c>
@@ -1806,7 +1816,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>74</v>
       </c>
@@ -1823,7 +1833,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>78</v>
       </c>
@@ -1840,7 +1850,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>82</v>
       </c>
@@ -1857,7 +1867,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>86</v>
       </c>
@@ -1874,7 +1884,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>90</v>
       </c>
@@ -1891,7 +1901,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>94</v>
       </c>
@@ -1908,7 +1918,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>98</v>
       </c>
@@ -1925,7 +1935,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>102</v>
       </c>
@@ -1942,7 +1952,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>106</v>
       </c>
@@ -1959,7 +1969,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>110</v>
       </c>
@@ -1976,7 +1986,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>114</v>
       </c>
@@ -1993,7 +2003,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>119</v>
       </c>
@@ -2010,7 +2020,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>123</v>
       </c>
@@ -2027,7 +2037,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>127</v>
       </c>
@@ -2044,7 +2054,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>131</v>
       </c>
@@ -2061,7 +2071,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>135</v>
       </c>
@@ -2078,7 +2088,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>139</v>
       </c>
@@ -2095,7 +2105,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>143</v>
       </c>
@@ -2112,7 +2122,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>147</v>
       </c>
@@ -2129,7 +2139,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>152</v>
       </c>
@@ -2146,7 +2156,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>156</v>
       </c>
@@ -2163,7 +2173,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>160</v>
       </c>
@@ -2180,7 +2190,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>164</v>
       </c>
@@ -2197,7 +2207,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>168</v>
       </c>
@@ -2214,7 +2224,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>173</v>
       </c>
@@ -2231,7 +2241,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>177</v>
       </c>
@@ -2248,7 +2258,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>181</v>
       </c>
@@ -2265,7 +2275,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>185</v>
       </c>
@@ -2282,7 +2292,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>189</v>
       </c>
@@ -2299,7 +2309,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>193</v>
       </c>
@@ -2316,7 +2326,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>198</v>
       </c>
@@ -2333,7 +2343,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>202</v>
       </c>
@@ -2350,7 +2360,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>206</v>
       </c>
@@ -2367,7 +2377,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>210</v>
       </c>
@@ -2384,7 +2394,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
         <v>215</v>
       </c>
@@ -2401,7 +2411,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
         <v>219</v>
       </c>
@@ -2418,7 +2428,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>223</v>
       </c>
@@ -2435,7 +2445,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>227</v>
       </c>
@@ -2452,7 +2462,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>231</v>
       </c>
@@ -2469,7 +2479,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>235</v>
       </c>
@@ -2486,7 +2496,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>239</v>
       </c>
@@ -2503,7 +2513,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>243</v>
       </c>
@@ -2520,7 +2530,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="21" t="s">
         <v>247</v>
       </c>
@@ -2537,7 +2547,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>251</v>
       </c>
@@ -2554,7 +2564,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>256</v>
       </c>
@@ -2571,7 +2581,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>260</v>
       </c>
@@ -2588,7 +2598,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>264</v>
       </c>
@@ -2605,7 +2615,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>268</v>
       </c>
@@ -2622,7 +2632,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>272</v>
       </c>
@@ -2639,7 +2649,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>276</v>
       </c>
@@ -2656,7 +2666,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>280</v>
       </c>
@@ -2673,7 +2683,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>284</v>
       </c>
@@ -2690,7 +2700,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>288</v>
       </c>
@@ -2707,7 +2717,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>292</v>
       </c>
@@ -2724,7 +2734,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>296</v>
       </c>
@@ -2741,7 +2751,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
         <v>300</v>
       </c>
@@ -2758,7 +2768,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>304</v>
       </c>
@@ -2775,7 +2785,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>181</v>
       </c>
@@ -2792,7 +2802,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>310</v>
       </c>
@@ -2809,7 +2819,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>314</v>
       </c>
@@ -2826,2931 +2836,2931 @@
         <v>317</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="22"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="22"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="22"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="22"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="22"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="22"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="22"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="22"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="22"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="22"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="22"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="22"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="22"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="22"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="22"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="22"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="22"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="22"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="22"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="22"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="22"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="22"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="22"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="22"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="22"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="22"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="22"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="22"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="22"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="22"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="22"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="22"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="22"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="22"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="22"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="22"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="22"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="22"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="22"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="22"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="22"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="22"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="22"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="22"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="22"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="22"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="22"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="22"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="22"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="22"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="22"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="22"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="22"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="22"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="22"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="22"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="22"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="22"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="22"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="22"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="22"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="22"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="22"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="22"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="22"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="22"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="22"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="22"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="22"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="22"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="22"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="22"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="22"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="22"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="22"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="22"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="22"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="22"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="22"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="22"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="22"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="22"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="22"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="22"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="22"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="22"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="22"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="22"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="22"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="22"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="22"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="22"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="22"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="22"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="22"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" s="22"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="22"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="22"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="22"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="22"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="22"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="22"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="22"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="22"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="22"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="22"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="22"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="22"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="22"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="22"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="22"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="22"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="22"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="22"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="22"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="22"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="22"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="22"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="22"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="22"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="22"/>
     </row>
-    <row r="201">
+    <row r="201" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A201" s="22"/>
     </row>
-    <row r="202">
+    <row r="202" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A202" s="22"/>
     </row>
-    <row r="203">
+    <row r="203" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A203" s="22"/>
     </row>
-    <row r="204">
+    <row r="204" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A204" s="22"/>
     </row>
-    <row r="205">
+    <row r="205" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="22"/>
     </row>
-    <row r="206">
+    <row r="206" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A206" s="22"/>
     </row>
-    <row r="207">
+    <row r="207" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A207" s="22"/>
     </row>
-    <row r="208">
+    <row r="208" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A208" s="22"/>
     </row>
-    <row r="209">
+    <row r="209" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A209" s="22"/>
     </row>
-    <row r="210">
+    <row r="210" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A210" s="22"/>
     </row>
-    <row r="211">
+    <row r="211" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A211" s="22"/>
     </row>
-    <row r="212">
+    <row r="212" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A212" s="22"/>
     </row>
-    <row r="213">
+    <row r="213" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A213" s="22"/>
     </row>
-    <row r="214">
+    <row r="214" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A214" s="22"/>
     </row>
-    <row r="215">
+    <row r="215" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A215" s="22"/>
     </row>
-    <row r="216">
+    <row r="216" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A216" s="22"/>
     </row>
-    <row r="217">
+    <row r="217" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A217" s="22"/>
     </row>
-    <row r="218">
+    <row r="218" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A218" s="22"/>
     </row>
-    <row r="219">
+    <row r="219" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A219" s="22"/>
     </row>
-    <row r="220">
+    <row r="220" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A220" s="22"/>
     </row>
-    <row r="221">
+    <row r="221" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A221" s="22"/>
     </row>
-    <row r="222">
+    <row r="222" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A222" s="22"/>
     </row>
-    <row r="223">
+    <row r="223" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A223" s="22"/>
     </row>
-    <row r="224">
+    <row r="224" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A224" s="22"/>
     </row>
-    <row r="225">
+    <row r="225" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A225" s="22"/>
     </row>
-    <row r="226">
+    <row r="226" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A226" s="22"/>
     </row>
-    <row r="227">
+    <row r="227" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A227" s="22"/>
     </row>
-    <row r="228">
+    <row r="228" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A228" s="22"/>
     </row>
-    <row r="229">
+    <row r="229" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A229" s="22"/>
     </row>
-    <row r="230">
+    <row r="230" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A230" s="22"/>
     </row>
-    <row r="231">
+    <row r="231" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A231" s="22"/>
     </row>
-    <row r="232">
+    <row r="232" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A232" s="22"/>
     </row>
-    <row r="233">
+    <row r="233" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A233" s="22"/>
     </row>
-    <row r="234">
+    <row r="234" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A234" s="22"/>
     </row>
-    <row r="235">
+    <row r="235" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A235" s="22"/>
     </row>
-    <row r="236">
+    <row r="236" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A236" s="22"/>
     </row>
-    <row r="237">
+    <row r="237" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A237" s="22"/>
     </row>
-    <row r="238">
+    <row r="238" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A238" s="22"/>
     </row>
-    <row r="239">
+    <row r="239" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A239" s="22"/>
     </row>
-    <row r="240">
+    <row r="240" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A240" s="22"/>
     </row>
-    <row r="241">
+    <row r="241" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A241" s="22"/>
     </row>
-    <row r="242">
+    <row r="242" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A242" s="22"/>
     </row>
-    <row r="243">
+    <row r="243" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A243" s="22"/>
     </row>
-    <row r="244">
+    <row r="244" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A244" s="22"/>
     </row>
-    <row r="245">
+    <row r="245" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A245" s="22"/>
     </row>
-    <row r="246">
+    <row r="246" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A246" s="22"/>
     </row>
-    <row r="247">
+    <row r="247" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A247" s="22"/>
     </row>
-    <row r="248">
+    <row r="248" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A248" s="22"/>
     </row>
-    <row r="249">
+    <row r="249" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A249" s="22"/>
     </row>
-    <row r="250">
+    <row r="250" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A250" s="22"/>
     </row>
-    <row r="251">
+    <row r="251" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A251" s="22"/>
     </row>
-    <row r="252">
+    <row r="252" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A252" s="22"/>
     </row>
-    <row r="253">
+    <row r="253" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A253" s="22"/>
     </row>
-    <row r="254">
+    <row r="254" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A254" s="22"/>
     </row>
-    <row r="255">
+    <row r="255" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A255" s="22"/>
     </row>
-    <row r="256">
+    <row r="256" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A256" s="22"/>
     </row>
-    <row r="257">
+    <row r="257" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A257" s="22"/>
     </row>
-    <row r="258">
+    <row r="258" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A258" s="22"/>
     </row>
-    <row r="259">
+    <row r="259" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A259" s="22"/>
     </row>
-    <row r="260">
+    <row r="260" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A260" s="22"/>
     </row>
-    <row r="261">
+    <row r="261" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A261" s="22"/>
     </row>
-    <row r="262">
+    <row r="262" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A262" s="22"/>
     </row>
-    <row r="263">
+    <row r="263" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A263" s="22"/>
     </row>
-    <row r="264">
+    <row r="264" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A264" s="22"/>
     </row>
-    <row r="265">
+    <row r="265" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A265" s="22"/>
     </row>
-    <row r="266">
+    <row r="266" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A266" s="22"/>
     </row>
-    <row r="267">
+    <row r="267" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A267" s="22"/>
     </row>
-    <row r="268">
+    <row r="268" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A268" s="22"/>
     </row>
-    <row r="269">
+    <row r="269" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A269" s="22"/>
     </row>
-    <row r="270">
+    <row r="270" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A270" s="22"/>
     </row>
-    <row r="271">
+    <row r="271" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A271" s="22"/>
     </row>
-    <row r="272">
+    <row r="272" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A272" s="22"/>
     </row>
-    <row r="273">
+    <row r="273" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A273" s="22"/>
     </row>
-    <row r="274">
+    <row r="274" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A274" s="22"/>
     </row>
-    <row r="275">
+    <row r="275" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A275" s="22"/>
     </row>
-    <row r="276">
+    <row r="276" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A276" s="22"/>
     </row>
-    <row r="277">
+    <row r="277" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A277" s="22"/>
     </row>
-    <row r="278">
+    <row r="278" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A278" s="22"/>
     </row>
-    <row r="279">
+    <row r="279" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A279" s="22"/>
     </row>
-    <row r="280">
+    <row r="280" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A280" s="22"/>
     </row>
-    <row r="281">
+    <row r="281" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A281" s="22"/>
     </row>
-    <row r="282">
+    <row r="282" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A282" s="22"/>
     </row>
-    <row r="283">
+    <row r="283" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A283" s="22"/>
     </row>
-    <row r="284">
+    <row r="284" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A284" s="22"/>
     </row>
-    <row r="285">
+    <row r="285" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A285" s="22"/>
     </row>
-    <row r="286">
+    <row r="286" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A286" s="22"/>
     </row>
-    <row r="287">
+    <row r="287" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A287" s="22"/>
     </row>
-    <row r="288">
+    <row r="288" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A288" s="22"/>
     </row>
-    <row r="289">
+    <row r="289" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A289" s="22"/>
     </row>
-    <row r="290">
+    <row r="290" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A290" s="22"/>
     </row>
-    <row r="291">
+    <row r="291" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A291" s="22"/>
     </row>
-    <row r="292">
+    <row r="292" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A292" s="22"/>
     </row>
-    <row r="293">
+    <row r="293" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A293" s="22"/>
     </row>
-    <row r="294">
+    <row r="294" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A294" s="22"/>
     </row>
-    <row r="295">
+    <row r="295" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A295" s="22"/>
     </row>
-    <row r="296">
+    <row r="296" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A296" s="22"/>
     </row>
-    <row r="297">
+    <row r="297" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A297" s="22"/>
     </row>
-    <row r="298">
+    <row r="298" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A298" s="22"/>
     </row>
-    <row r="299">
+    <row r="299" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A299" s="22"/>
     </row>
-    <row r="300">
+    <row r="300" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A300" s="22"/>
     </row>
-    <row r="301">
+    <row r="301" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A301" s="22"/>
     </row>
-    <row r="302">
+    <row r="302" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A302" s="22"/>
     </row>
-    <row r="303">
+    <row r="303" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A303" s="22"/>
     </row>
-    <row r="304">
+    <row r="304" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A304" s="22"/>
     </row>
-    <row r="305">
+    <row r="305" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A305" s="22"/>
     </row>
-    <row r="306">
+    <row r="306" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A306" s="22"/>
     </row>
-    <row r="307">
+    <row r="307" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A307" s="22"/>
     </row>
-    <row r="308">
+    <row r="308" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A308" s="22"/>
     </row>
-    <row r="309">
+    <row r="309" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A309" s="22"/>
     </row>
-    <row r="310">
+    <row r="310" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A310" s="22"/>
     </row>
-    <row r="311">
+    <row r="311" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A311" s="22"/>
     </row>
-    <row r="312">
+    <row r="312" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A312" s="22"/>
     </row>
-    <row r="313">
+    <row r="313" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A313" s="22"/>
     </row>
-    <row r="314">
+    <row r="314" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A314" s="22"/>
     </row>
-    <row r="315">
+    <row r="315" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A315" s="22"/>
     </row>
-    <row r="316">
+    <row r="316" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A316" s="22"/>
     </row>
-    <row r="317">
+    <row r="317" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A317" s="22"/>
     </row>
-    <row r="318">
+    <row r="318" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A318" s="22"/>
     </row>
-    <row r="319">
+    <row r="319" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A319" s="22"/>
     </row>
-    <row r="320">
+    <row r="320" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A320" s="22"/>
     </row>
-    <row r="321">
+    <row r="321" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A321" s="22"/>
     </row>
-    <row r="322">
+    <row r="322" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A322" s="22"/>
     </row>
-    <row r="323">
+    <row r="323" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A323" s="22"/>
     </row>
-    <row r="324">
+    <row r="324" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A324" s="22"/>
     </row>
-    <row r="325">
+    <row r="325" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A325" s="22"/>
     </row>
-    <row r="326">
+    <row r="326" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A326" s="22"/>
     </row>
-    <row r="327">
+    <row r="327" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A327" s="22"/>
     </row>
-    <row r="328">
+    <row r="328" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A328" s="22"/>
     </row>
-    <row r="329">
+    <row r="329" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A329" s="22"/>
     </row>
-    <row r="330">
+    <row r="330" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A330" s="22"/>
     </row>
-    <row r="331">
+    <row r="331" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A331" s="22"/>
     </row>
-    <row r="332">
+    <row r="332" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A332" s="22"/>
     </row>
-    <row r="333">
+    <row r="333" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A333" s="22"/>
     </row>
-    <row r="334">
+    <row r="334" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A334" s="22"/>
     </row>
-    <row r="335">
+    <row r="335" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A335" s="22"/>
     </row>
-    <row r="336">
+    <row r="336" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A336" s="22"/>
     </row>
-    <row r="337">
+    <row r="337" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A337" s="22"/>
     </row>
-    <row r="338">
+    <row r="338" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A338" s="22"/>
     </row>
-    <row r="339">
+    <row r="339" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A339" s="22"/>
     </row>
-    <row r="340">
+    <row r="340" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A340" s="22"/>
     </row>
-    <row r="341">
+    <row r="341" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A341" s="22"/>
     </row>
-    <row r="342">
+    <row r="342" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A342" s="22"/>
     </row>
-    <row r="343">
+    <row r="343" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A343" s="22"/>
     </row>
-    <row r="344">
+    <row r="344" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A344" s="22"/>
     </row>
-    <row r="345">
+    <row r="345" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A345" s="22"/>
     </row>
-    <row r="346">
+    <row r="346" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A346" s="22"/>
     </row>
-    <row r="347">
+    <row r="347" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A347" s="22"/>
     </row>
-    <row r="348">
+    <row r="348" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A348" s="22"/>
     </row>
-    <row r="349">
+    <row r="349" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A349" s="22"/>
     </row>
-    <row r="350">
+    <row r="350" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A350" s="22"/>
     </row>
-    <row r="351">
+    <row r="351" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A351" s="22"/>
     </row>
-    <row r="352">
+    <row r="352" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A352" s="22"/>
     </row>
-    <row r="353">
+    <row r="353" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A353" s="22"/>
     </row>
-    <row r="354">
+    <row r="354" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A354" s="22"/>
     </row>
-    <row r="355">
+    <row r="355" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A355" s="22"/>
     </row>
-    <row r="356">
+    <row r="356" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A356" s="22"/>
     </row>
-    <row r="357">
+    <row r="357" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A357" s="22"/>
     </row>
-    <row r="358">
+    <row r="358" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A358" s="22"/>
     </row>
-    <row r="359">
+    <row r="359" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A359" s="22"/>
     </row>
-    <row r="360">
+    <row r="360" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A360" s="22"/>
     </row>
-    <row r="361">
+    <row r="361" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A361" s="22"/>
     </row>
-    <row r="362">
+    <row r="362" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A362" s="22"/>
     </row>
-    <row r="363">
+    <row r="363" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A363" s="22"/>
     </row>
-    <row r="364">
+    <row r="364" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A364" s="22"/>
     </row>
-    <row r="365">
+    <row r="365" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A365" s="22"/>
     </row>
-    <row r="366">
+    <row r="366" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A366" s="22"/>
     </row>
-    <row r="367">
+    <row r="367" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A367" s="22"/>
     </row>
-    <row r="368">
+    <row r="368" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A368" s="22"/>
     </row>
-    <row r="369">
+    <row r="369" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A369" s="22"/>
     </row>
-    <row r="370">
+    <row r="370" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A370" s="22"/>
     </row>
-    <row r="371">
+    <row r="371" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A371" s="22"/>
     </row>
-    <row r="372">
+    <row r="372" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A372" s="22"/>
     </row>
-    <row r="373">
+    <row r="373" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A373" s="22"/>
     </row>
-    <row r="374">
+    <row r="374" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A374" s="22"/>
     </row>
-    <row r="375">
+    <row r="375" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A375" s="22"/>
     </row>
-    <row r="376">
+    <row r="376" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A376" s="22"/>
     </row>
-    <row r="377">
+    <row r="377" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A377" s="22"/>
     </row>
-    <row r="378">
+    <row r="378" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A378" s="22"/>
     </row>
-    <row r="379">
+    <row r="379" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A379" s="22"/>
     </row>
-    <row r="380">
+    <row r="380" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A380" s="22"/>
     </row>
-    <row r="381">
+    <row r="381" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A381" s="22"/>
     </row>
-    <row r="382">
+    <row r="382" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A382" s="22"/>
     </row>
-    <row r="383">
+    <row r="383" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A383" s="22"/>
     </row>
-    <row r="384">
+    <row r="384" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A384" s="22"/>
     </row>
-    <row r="385">
+    <row r="385" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A385" s="22"/>
     </row>
-    <row r="386">
+    <row r="386" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A386" s="22"/>
     </row>
-    <row r="387">
+    <row r="387" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A387" s="22"/>
     </row>
-    <row r="388">
+    <row r="388" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A388" s="22"/>
     </row>
-    <row r="389">
+    <row r="389" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A389" s="22"/>
     </row>
-    <row r="390">
+    <row r="390" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A390" s="22"/>
     </row>
-    <row r="391">
+    <row r="391" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A391" s="22"/>
     </row>
-    <row r="392">
+    <row r="392" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A392" s="22"/>
     </row>
-    <row r="393">
+    <row r="393" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A393" s="22"/>
     </row>
-    <row r="394">
+    <row r="394" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A394" s="22"/>
     </row>
-    <row r="395">
+    <row r="395" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A395" s="22"/>
     </row>
-    <row r="396">
+    <row r="396" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A396" s="22"/>
     </row>
-    <row r="397">
+    <row r="397" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A397" s="22"/>
     </row>
-    <row r="398">
+    <row r="398" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A398" s="22"/>
     </row>
-    <row r="399">
+    <row r="399" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A399" s="22"/>
     </row>
-    <row r="400">
+    <row r="400" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A400" s="22"/>
     </row>
-    <row r="401">
+    <row r="401" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A401" s="22"/>
     </row>
-    <row r="402">
+    <row r="402" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A402" s="22"/>
     </row>
-    <row r="403">
+    <row r="403" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A403" s="22"/>
     </row>
-    <row r="404">
+    <row r="404" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A404" s="22"/>
     </row>
-    <row r="405">
+    <row r="405" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A405" s="22"/>
     </row>
-    <row r="406">
+    <row r="406" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A406" s="22"/>
     </row>
-    <row r="407">
+    <row r="407" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A407" s="22"/>
     </row>
-    <row r="408">
+    <row r="408" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A408" s="22"/>
     </row>
-    <row r="409">
+    <row r="409" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A409" s="22"/>
     </row>
-    <row r="410">
+    <row r="410" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A410" s="22"/>
     </row>
-    <row r="411">
+    <row r="411" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A411" s="22"/>
     </row>
-    <row r="412">
+    <row r="412" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A412" s="22"/>
     </row>
-    <row r="413">
+    <row r="413" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A413" s="22"/>
     </row>
-    <row r="414">
+    <row r="414" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A414" s="22"/>
     </row>
-    <row r="415">
+    <row r="415" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A415" s="22"/>
     </row>
-    <row r="416">
+    <row r="416" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A416" s="22"/>
     </row>
-    <row r="417">
+    <row r="417" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A417" s="22"/>
     </row>
-    <row r="418">
+    <row r="418" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A418" s="22"/>
     </row>
-    <row r="419">
+    <row r="419" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A419" s="22"/>
     </row>
-    <row r="420">
+    <row r="420" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A420" s="22"/>
     </row>
-    <row r="421">
+    <row r="421" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A421" s="22"/>
     </row>
-    <row r="422">
+    <row r="422" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A422" s="22"/>
     </row>
-    <row r="423">
+    <row r="423" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A423" s="22"/>
     </row>
-    <row r="424">
+    <row r="424" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A424" s="22"/>
     </row>
-    <row r="425">
+    <row r="425" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A425" s="22"/>
     </row>
-    <row r="426">
+    <row r="426" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A426" s="22"/>
     </row>
-    <row r="427">
+    <row r="427" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A427" s="22"/>
     </row>
-    <row r="428">
+    <row r="428" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A428" s="22"/>
     </row>
-    <row r="429">
+    <row r="429" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A429" s="22"/>
     </row>
-    <row r="430">
+    <row r="430" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A430" s="22"/>
     </row>
-    <row r="431">
+    <row r="431" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A431" s="22"/>
     </row>
-    <row r="432">
+    <row r="432" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A432" s="22"/>
     </row>
-    <row r="433">
+    <row r="433" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A433" s="22"/>
     </row>
-    <row r="434">
+    <row r="434" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A434" s="22"/>
     </row>
-    <row r="435">
+    <row r="435" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A435" s="22"/>
     </row>
-    <row r="436">
+    <row r="436" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A436" s="22"/>
     </row>
-    <row r="437">
+    <row r="437" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A437" s="22"/>
     </row>
-    <row r="438">
+    <row r="438" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A438" s="22"/>
     </row>
-    <row r="439">
+    <row r="439" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A439" s="22"/>
     </row>
-    <row r="440">
+    <row r="440" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A440" s="22"/>
     </row>
-    <row r="441">
+    <row r="441" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A441" s="22"/>
     </row>
-    <row r="442">
+    <row r="442" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A442" s="22"/>
     </row>
-    <row r="443">
+    <row r="443" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A443" s="22"/>
     </row>
-    <row r="444">
+    <row r="444" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A444" s="22"/>
     </row>
-    <row r="445">
+    <row r="445" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A445" s="22"/>
     </row>
-    <row r="446">
+    <row r="446" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A446" s="22"/>
     </row>
-    <row r="447">
+    <row r="447" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A447" s="22"/>
     </row>
-    <row r="448">
+    <row r="448" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A448" s="22"/>
     </row>
-    <row r="449">
+    <row r="449" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A449" s="22"/>
     </row>
-    <row r="450">
+    <row r="450" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A450" s="22"/>
     </row>
-    <row r="451">
+    <row r="451" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A451" s="22"/>
     </row>
-    <row r="452">
+    <row r="452" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A452" s="22"/>
     </row>
-    <row r="453">
+    <row r="453" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A453" s="22"/>
     </row>
-    <row r="454">
+    <row r="454" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A454" s="22"/>
     </row>
-    <row r="455">
+    <row r="455" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A455" s="22"/>
     </row>
-    <row r="456">
+    <row r="456" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A456" s="22"/>
     </row>
-    <row r="457">
+    <row r="457" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A457" s="22"/>
     </row>
-    <row r="458">
+    <row r="458" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A458" s="22"/>
     </row>
-    <row r="459">
+    <row r="459" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A459" s="22"/>
     </row>
-    <row r="460">
+    <row r="460" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A460" s="22"/>
     </row>
-    <row r="461">
+    <row r="461" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A461" s="22"/>
     </row>
-    <row r="462">
+    <row r="462" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A462" s="22"/>
     </row>
-    <row r="463">
+    <row r="463" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A463" s="22"/>
     </row>
-    <row r="464">
+    <row r="464" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A464" s="22"/>
     </row>
-    <row r="465">
+    <row r="465" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A465" s="22"/>
     </row>
-    <row r="466">
+    <row r="466" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A466" s="22"/>
     </row>
-    <row r="467">
+    <row r="467" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A467" s="22"/>
     </row>
-    <row r="468">
+    <row r="468" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A468" s="22"/>
     </row>
-    <row r="469">
+    <row r="469" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A469" s="22"/>
     </row>
-    <row r="470">
+    <row r="470" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A470" s="22"/>
     </row>
-    <row r="471">
+    <row r="471" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A471" s="22"/>
     </row>
-    <row r="472">
+    <row r="472" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A472" s="22"/>
     </row>
-    <row r="473">
+    <row r="473" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A473" s="22"/>
     </row>
-    <row r="474">
+    <row r="474" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A474" s="22"/>
     </row>
-    <row r="475">
+    <row r="475" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A475" s="22"/>
     </row>
-    <row r="476">
+    <row r="476" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A476" s="22"/>
     </row>
-    <row r="477">
+    <row r="477" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A477" s="22"/>
     </row>
-    <row r="478">
+    <row r="478" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A478" s="22"/>
     </row>
-    <row r="479">
+    <row r="479" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A479" s="22"/>
     </row>
-    <row r="480">
+    <row r="480" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A480" s="22"/>
     </row>
-    <row r="481">
+    <row r="481" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A481" s="22"/>
     </row>
-    <row r="482">
+    <row r="482" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A482" s="22"/>
     </row>
-    <row r="483">
+    <row r="483" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A483" s="22"/>
     </row>
-    <row r="484">
+    <row r="484" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A484" s="22"/>
     </row>
-    <row r="485">
+    <row r="485" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A485" s="22"/>
     </row>
-    <row r="486">
+    <row r="486" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A486" s="22"/>
     </row>
-    <row r="487">
+    <row r="487" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A487" s="22"/>
     </row>
-    <row r="488">
+    <row r="488" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A488" s="22"/>
     </row>
-    <row r="489">
+    <row r="489" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A489" s="22"/>
     </row>
-    <row r="490">
+    <row r="490" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A490" s="22"/>
     </row>
-    <row r="491">
+    <row r="491" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A491" s="22"/>
     </row>
-    <row r="492">
+    <row r="492" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A492" s="22"/>
     </row>
-    <row r="493">
+    <row r="493" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A493" s="22"/>
     </row>
-    <row r="494">
+    <row r="494" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A494" s="22"/>
     </row>
-    <row r="495">
+    <row r="495" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A495" s="22"/>
     </row>
-    <row r="496">
+    <row r="496" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A496" s="22"/>
     </row>
-    <row r="497">
+    <row r="497" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A497" s="22"/>
     </row>
-    <row r="498">
+    <row r="498" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A498" s="22"/>
     </row>
-    <row r="499">
+    <row r="499" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A499" s="22"/>
     </row>
-    <row r="500">
+    <row r="500" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A500" s="22"/>
     </row>
-    <row r="501">
+    <row r="501" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A501" s="22"/>
     </row>
-    <row r="502">
+    <row r="502" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A502" s="22"/>
     </row>
-    <row r="503">
+    <row r="503" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A503" s="22"/>
     </row>
-    <row r="504">
+    <row r="504" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A504" s="22"/>
     </row>
-    <row r="505">
+    <row r="505" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A505" s="22"/>
     </row>
-    <row r="506">
+    <row r="506" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A506" s="22"/>
     </row>
-    <row r="507">
+    <row r="507" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A507" s="22"/>
     </row>
-    <row r="508">
+    <row r="508" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A508" s="22"/>
     </row>
-    <row r="509">
+    <row r="509" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A509" s="22"/>
     </row>
-    <row r="510">
+    <row r="510" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A510" s="22"/>
     </row>
-    <row r="511">
+    <row r="511" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A511" s="22"/>
     </row>
-    <row r="512">
+    <row r="512" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A512" s="22"/>
     </row>
-    <row r="513">
+    <row r="513" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A513" s="22"/>
     </row>
-    <row r="514">
+    <row r="514" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A514" s="22"/>
     </row>
-    <row r="515">
+    <row r="515" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A515" s="22"/>
     </row>
-    <row r="516">
+    <row r="516" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A516" s="22"/>
     </row>
-    <row r="517">
+    <row r="517" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A517" s="22"/>
     </row>
-    <row r="518">
+    <row r="518" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A518" s="22"/>
     </row>
-    <row r="519">
+    <row r="519" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A519" s="22"/>
     </row>
-    <row r="520">
+    <row r="520" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A520" s="22"/>
     </row>
-    <row r="521">
+    <row r="521" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A521" s="22"/>
     </row>
-    <row r="522">
+    <row r="522" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A522" s="22"/>
     </row>
-    <row r="523">
+    <row r="523" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A523" s="22"/>
     </row>
-    <row r="524">
+    <row r="524" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A524" s="22"/>
     </row>
-    <row r="525">
+    <row r="525" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A525" s="22"/>
     </row>
-    <row r="526">
+    <row r="526" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A526" s="22"/>
     </row>
-    <row r="527">
+    <row r="527" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A527" s="22"/>
     </row>
-    <row r="528">
+    <row r="528" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A528" s="22"/>
     </row>
-    <row r="529">
+    <row r="529" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A529" s="22"/>
     </row>
-    <row r="530">
+    <row r="530" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A530" s="22"/>
     </row>
-    <row r="531">
+    <row r="531" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A531" s="22"/>
     </row>
-    <row r="532">
+    <row r="532" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A532" s="22"/>
     </row>
-    <row r="533">
+    <row r="533" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A533" s="22"/>
     </row>
-    <row r="534">
+    <row r="534" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A534" s="22"/>
     </row>
-    <row r="535">
+    <row r="535" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A535" s="22"/>
     </row>
-    <row r="536">
+    <row r="536" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A536" s="22"/>
     </row>
-    <row r="537">
+    <row r="537" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A537" s="22"/>
     </row>
-    <row r="538">
+    <row r="538" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A538" s="22"/>
     </row>
-    <row r="539">
+    <row r="539" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A539" s="22"/>
     </row>
-    <row r="540">
+    <row r="540" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A540" s="22"/>
     </row>
-    <row r="541">
+    <row r="541" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A541" s="22"/>
     </row>
-    <row r="542">
+    <row r="542" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A542" s="22"/>
     </row>
-    <row r="543">
+    <row r="543" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A543" s="22"/>
     </row>
-    <row r="544">
+    <row r="544" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A544" s="22"/>
     </row>
-    <row r="545">
+    <row r="545" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A545" s="22"/>
     </row>
-    <row r="546">
+    <row r="546" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A546" s="22"/>
     </row>
-    <row r="547">
+    <row r="547" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A547" s="22"/>
     </row>
-    <row r="548">
+    <row r="548" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A548" s="22"/>
     </row>
-    <row r="549">
+    <row r="549" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A549" s="22"/>
     </row>
-    <row r="550">
+    <row r="550" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A550" s="22"/>
     </row>
-    <row r="551">
+    <row r="551" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A551" s="22"/>
     </row>
-    <row r="552">
+    <row r="552" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A552" s="22"/>
     </row>
-    <row r="553">
+    <row r="553" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A553" s="22"/>
     </row>
-    <row r="554">
+    <row r="554" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A554" s="22"/>
     </row>
-    <row r="555">
+    <row r="555" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A555" s="22"/>
     </row>
-    <row r="556">
+    <row r="556" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A556" s="22"/>
     </row>
-    <row r="557">
+    <row r="557" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A557" s="22"/>
     </row>
-    <row r="558">
+    <row r="558" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A558" s="22"/>
     </row>
-    <row r="559">
+    <row r="559" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A559" s="22"/>
     </row>
-    <row r="560">
+    <row r="560" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A560" s="22"/>
     </row>
-    <row r="561">
+    <row r="561" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A561" s="22"/>
     </row>
-    <row r="562">
+    <row r="562" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A562" s="22"/>
     </row>
-    <row r="563">
+    <row r="563" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A563" s="22"/>
     </row>
-    <row r="564">
+    <row r="564" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A564" s="22"/>
     </row>
-    <row r="565">
+    <row r="565" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A565" s="22"/>
     </row>
-    <row r="566">
+    <row r="566" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A566" s="22"/>
     </row>
-    <row r="567">
+    <row r="567" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A567" s="22"/>
     </row>
-    <row r="568">
+    <row r="568" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A568" s="22"/>
     </row>
-    <row r="569">
+    <row r="569" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A569" s="22"/>
     </row>
-    <row r="570">
+    <row r="570" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A570" s="22"/>
     </row>
-    <row r="571">
+    <row r="571" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A571" s="22"/>
     </row>
-    <row r="572">
+    <row r="572" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A572" s="22"/>
     </row>
-    <row r="573">
+    <row r="573" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A573" s="22"/>
     </row>
-    <row r="574">
+    <row r="574" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A574" s="22"/>
     </row>
-    <row r="575">
+    <row r="575" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A575" s="22"/>
     </row>
-    <row r="576">
+    <row r="576" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A576" s="22"/>
     </row>
-    <row r="577">
+    <row r="577" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A577" s="22"/>
     </row>
-    <row r="578">
+    <row r="578" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A578" s="22"/>
     </row>
-    <row r="579">
+    <row r="579" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A579" s="22"/>
     </row>
-    <row r="580">
+    <row r="580" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A580" s="22"/>
     </row>
-    <row r="581">
+    <row r="581" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A581" s="22"/>
     </row>
-    <row r="582">
+    <row r="582" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A582" s="22"/>
     </row>
-    <row r="583">
+    <row r="583" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A583" s="22"/>
     </row>
-    <row r="584">
+    <row r="584" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A584" s="22"/>
     </row>
-    <row r="585">
+    <row r="585" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A585" s="22"/>
     </row>
-    <row r="586">
+    <row r="586" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A586" s="22"/>
     </row>
-    <row r="587">
+    <row r="587" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A587" s="22"/>
     </row>
-    <row r="588">
+    <row r="588" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A588" s="22"/>
     </row>
-    <row r="589">
+    <row r="589" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A589" s="22"/>
     </row>
-    <row r="590">
+    <row r="590" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A590" s="22"/>
     </row>
-    <row r="591">
+    <row r="591" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A591" s="22"/>
     </row>
-    <row r="592">
+    <row r="592" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A592" s="22"/>
     </row>
-    <row r="593">
+    <row r="593" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A593" s="22"/>
     </row>
-    <row r="594">
+    <row r="594" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A594" s="22"/>
     </row>
-    <row r="595">
+    <row r="595" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A595" s="22"/>
     </row>
-    <row r="596">
+    <row r="596" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A596" s="22"/>
     </row>
-    <row r="597">
+    <row r="597" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A597" s="22"/>
     </row>
-    <row r="598">
+    <row r="598" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A598" s="22"/>
     </row>
-    <row r="599">
+    <row r="599" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A599" s="22"/>
     </row>
-    <row r="600">
+    <row r="600" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A600" s="22"/>
     </row>
-    <row r="601">
+    <row r="601" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A601" s="22"/>
     </row>
-    <row r="602">
+    <row r="602" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A602" s="22"/>
     </row>
-    <row r="603">
+    <row r="603" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A603" s="22"/>
     </row>
-    <row r="604">
+    <row r="604" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A604" s="22"/>
     </row>
-    <row r="605">
+    <row r="605" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A605" s="22"/>
     </row>
-    <row r="606">
+    <row r="606" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A606" s="22"/>
     </row>
-    <row r="607">
+    <row r="607" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A607" s="22"/>
     </row>
-    <row r="608">
+    <row r="608" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A608" s="22"/>
     </row>
-    <row r="609">
+    <row r="609" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A609" s="22"/>
     </row>
-    <row r="610">
+    <row r="610" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A610" s="22"/>
     </row>
-    <row r="611">
+    <row r="611" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A611" s="22"/>
     </row>
-    <row r="612">
+    <row r="612" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A612" s="22"/>
     </row>
-    <row r="613">
+    <row r="613" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A613" s="22"/>
     </row>
-    <row r="614">
+    <row r="614" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A614" s="22"/>
     </row>
-    <row r="615">
+    <row r="615" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A615" s="22"/>
     </row>
-    <row r="616">
+    <row r="616" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A616" s="22"/>
     </row>
-    <row r="617">
+    <row r="617" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A617" s="22"/>
     </row>
-    <row r="618">
+    <row r="618" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A618" s="22"/>
     </row>
-    <row r="619">
+    <row r="619" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A619" s="22"/>
     </row>
-    <row r="620">
+    <row r="620" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A620" s="22"/>
     </row>
-    <row r="621">
+    <row r="621" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A621" s="22"/>
     </row>
-    <row r="622">
+    <row r="622" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A622" s="22"/>
     </row>
-    <row r="623">
+    <row r="623" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A623" s="22"/>
     </row>
-    <row r="624">
+    <row r="624" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A624" s="22"/>
     </row>
-    <row r="625">
+    <row r="625" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A625" s="22"/>
     </row>
-    <row r="626">
+    <row r="626" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A626" s="22"/>
     </row>
-    <row r="627">
+    <row r="627" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A627" s="22"/>
     </row>
-    <row r="628">
+    <row r="628" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A628" s="22"/>
     </row>
-    <row r="629">
+    <row r="629" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A629" s="22"/>
     </row>
-    <row r="630">
+    <row r="630" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A630" s="22"/>
     </row>
-    <row r="631">
+    <row r="631" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A631" s="22"/>
     </row>
-    <row r="632">
+    <row r="632" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A632" s="22"/>
     </row>
-    <row r="633">
+    <row r="633" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A633" s="22"/>
     </row>
-    <row r="634">
+    <row r="634" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A634" s="22"/>
     </row>
-    <row r="635">
+    <row r="635" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A635" s="22"/>
     </row>
-    <row r="636">
+    <row r="636" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A636" s="22"/>
     </row>
-    <row r="637">
+    <row r="637" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A637" s="22"/>
     </row>
-    <row r="638">
+    <row r="638" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A638" s="22"/>
     </row>
-    <row r="639">
+    <row r="639" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A639" s="22"/>
     </row>
-    <row r="640">
+    <row r="640" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A640" s="22"/>
     </row>
-    <row r="641">
+    <row r="641" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A641" s="22"/>
     </row>
-    <row r="642">
+    <row r="642" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A642" s="22"/>
     </row>
-    <row r="643">
+    <row r="643" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A643" s="22"/>
     </row>
-    <row r="644">
+    <row r="644" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A644" s="22"/>
     </row>
-    <row r="645">
+    <row r="645" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A645" s="22"/>
     </row>
-    <row r="646">
+    <row r="646" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A646" s="22"/>
     </row>
-    <row r="647">
+    <row r="647" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A647" s="22"/>
     </row>
-    <row r="648">
+    <row r="648" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A648" s="22"/>
     </row>
-    <row r="649">
+    <row r="649" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A649" s="22"/>
     </row>
-    <row r="650">
+    <row r="650" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A650" s="22"/>
     </row>
-    <row r="651">
+    <row r="651" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A651" s="22"/>
     </row>
-    <row r="652">
+    <row r="652" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A652" s="22"/>
     </row>
-    <row r="653">
+    <row r="653" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A653" s="22"/>
     </row>
-    <row r="654">
+    <row r="654" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A654" s="22"/>
     </row>
-    <row r="655">
+    <row r="655" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A655" s="22"/>
     </row>
-    <row r="656">
+    <row r="656" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A656" s="22"/>
     </row>
-    <row r="657">
+    <row r="657" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A657" s="22"/>
     </row>
-    <row r="658">
+    <row r="658" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A658" s="22"/>
     </row>
-    <row r="659">
+    <row r="659" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A659" s="22"/>
     </row>
-    <row r="660">
+    <row r="660" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A660" s="22"/>
     </row>
-    <row r="661">
+    <row r="661" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A661" s="22"/>
     </row>
-    <row r="662">
+    <row r="662" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A662" s="22"/>
     </row>
-    <row r="663">
+    <row r="663" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A663" s="22"/>
     </row>
-    <row r="664">
+    <row r="664" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A664" s="22"/>
     </row>
-    <row r="665">
+    <row r="665" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A665" s="22"/>
     </row>
-    <row r="666">
+    <row r="666" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A666" s="22"/>
     </row>
-    <row r="667">
+    <row r="667" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A667" s="22"/>
     </row>
-    <row r="668">
+    <row r="668" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A668" s="22"/>
     </row>
-    <row r="669">
+    <row r="669" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A669" s="22"/>
     </row>
-    <row r="670">
+    <row r="670" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A670" s="22"/>
     </row>
-    <row r="671">
+    <row r="671" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A671" s="22"/>
     </row>
-    <row r="672">
+    <row r="672" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A672" s="22"/>
     </row>
-    <row r="673">
+    <row r="673" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A673" s="22"/>
     </row>
-    <row r="674">
+    <row r="674" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A674" s="22"/>
     </row>
-    <row r="675">
+    <row r="675" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A675" s="22"/>
     </row>
-    <row r="676">
+    <row r="676" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A676" s="22"/>
     </row>
-    <row r="677">
+    <row r="677" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A677" s="22"/>
     </row>
-    <row r="678">
+    <row r="678" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A678" s="22"/>
     </row>
-    <row r="679">
+    <row r="679" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A679" s="22"/>
     </row>
-    <row r="680">
+    <row r="680" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A680" s="22"/>
     </row>
-    <row r="681">
+    <row r="681" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A681" s="22"/>
     </row>
-    <row r="682">
+    <row r="682" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A682" s="22"/>
     </row>
-    <row r="683">
+    <row r="683" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A683" s="22"/>
     </row>
-    <row r="684">
+    <row r="684" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A684" s="22"/>
     </row>
-    <row r="685">
+    <row r="685" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A685" s="22"/>
     </row>
-    <row r="686">
+    <row r="686" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A686" s="22"/>
     </row>
-    <row r="687">
+    <row r="687" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A687" s="22"/>
     </row>
-    <row r="688">
+    <row r="688" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A688" s="22"/>
     </row>
-    <row r="689">
+    <row r="689" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A689" s="22"/>
     </row>
-    <row r="690">
+    <row r="690" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A690" s="22"/>
     </row>
-    <row r="691">
+    <row r="691" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A691" s="22"/>
     </row>
-    <row r="692">
+    <row r="692" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A692" s="22"/>
     </row>
-    <row r="693">
+    <row r="693" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A693" s="22"/>
     </row>
-    <row r="694">
+    <row r="694" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A694" s="22"/>
     </row>
-    <row r="695">
+    <row r="695" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A695" s="22"/>
     </row>
-    <row r="696">
+    <row r="696" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A696" s="22"/>
     </row>
-    <row r="697">
+    <row r="697" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A697" s="22"/>
     </row>
-    <row r="698">
+    <row r="698" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A698" s="22"/>
     </row>
-    <row r="699">
+    <row r="699" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A699" s="22"/>
     </row>
-    <row r="700">
+    <row r="700" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A700" s="22"/>
     </row>
-    <row r="701">
+    <row r="701" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A701" s="22"/>
     </row>
-    <row r="702">
+    <row r="702" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A702" s="22"/>
     </row>
-    <row r="703">
+    <row r="703" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A703" s="22"/>
     </row>
-    <row r="704">
+    <row r="704" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A704" s="22"/>
     </row>
-    <row r="705">
+    <row r="705" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A705" s="22"/>
     </row>
-    <row r="706">
+    <row r="706" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A706" s="22"/>
     </row>
-    <row r="707">
+    <row r="707" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A707" s="22"/>
     </row>
-    <row r="708">
+    <row r="708" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A708" s="22"/>
     </row>
-    <row r="709">
+    <row r="709" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A709" s="22"/>
     </row>
-    <row r="710">
+    <row r="710" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A710" s="22"/>
     </row>
-    <row r="711">
+    <row r="711" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A711" s="22"/>
     </row>
-    <row r="712">
+    <row r="712" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A712" s="22"/>
     </row>
-    <row r="713">
+    <row r="713" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A713" s="22"/>
     </row>
-    <row r="714">
+    <row r="714" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A714" s="22"/>
     </row>
-    <row r="715">
+    <row r="715" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A715" s="22"/>
     </row>
-    <row r="716">
+    <row r="716" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A716" s="22"/>
     </row>
-    <row r="717">
+    <row r="717" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A717" s="22"/>
     </row>
-    <row r="718">
+    <row r="718" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A718" s="22"/>
     </row>
-    <row r="719">
+    <row r="719" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A719" s="22"/>
     </row>
-    <row r="720">
+    <row r="720" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A720" s="22"/>
     </row>
-    <row r="721">
+    <row r="721" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A721" s="22"/>
     </row>
-    <row r="722">
+    <row r="722" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A722" s="22"/>
     </row>
-    <row r="723">
+    <row r="723" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A723" s="22"/>
     </row>
-    <row r="724">
+    <row r="724" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A724" s="22"/>
     </row>
-    <row r="725">
+    <row r="725" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A725" s="22"/>
     </row>
-    <row r="726">
+    <row r="726" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A726" s="22"/>
     </row>
-    <row r="727">
+    <row r="727" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A727" s="22"/>
     </row>
-    <row r="728">
+    <row r="728" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A728" s="22"/>
     </row>
-    <row r="729">
+    <row r="729" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A729" s="22"/>
     </row>
-    <row r="730">
+    <row r="730" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A730" s="22"/>
     </row>
-    <row r="731">
+    <row r="731" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A731" s="22"/>
     </row>
-    <row r="732">
+    <row r="732" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A732" s="22"/>
     </row>
-    <row r="733">
+    <row r="733" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A733" s="22"/>
     </row>
-    <row r="734">
+    <row r="734" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A734" s="22"/>
     </row>
-    <row r="735">
+    <row r="735" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A735" s="22"/>
     </row>
-    <row r="736">
+    <row r="736" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A736" s="22"/>
     </row>
-    <row r="737">
+    <row r="737" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A737" s="22"/>
     </row>
-    <row r="738">
+    <row r="738" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A738" s="22"/>
     </row>
-    <row r="739">
+    <row r="739" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A739" s="22"/>
     </row>
-    <row r="740">
+    <row r="740" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A740" s="22"/>
     </row>
-    <row r="741">
+    <row r="741" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A741" s="22"/>
     </row>
-    <row r="742">
+    <row r="742" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A742" s="22"/>
     </row>
-    <row r="743">
+    <row r="743" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A743" s="22"/>
     </row>
-    <row r="744">
+    <row r="744" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A744" s="22"/>
     </row>
-    <row r="745">
+    <row r="745" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A745" s="22"/>
     </row>
-    <row r="746">
+    <row r="746" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A746" s="22"/>
     </row>
-    <row r="747">
+    <row r="747" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A747" s="22"/>
     </row>
-    <row r="748">
+    <row r="748" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A748" s="22"/>
     </row>
-    <row r="749">
+    <row r="749" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A749" s="22"/>
     </row>
-    <row r="750">
+    <row r="750" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A750" s="22"/>
     </row>
-    <row r="751">
+    <row r="751" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A751" s="22"/>
     </row>
-    <row r="752">
+    <row r="752" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A752" s="22"/>
     </row>
-    <row r="753">
+    <row r="753" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A753" s="22"/>
     </row>
-    <row r="754">
+    <row r="754" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A754" s="22"/>
     </row>
-    <row r="755">
+    <row r="755" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A755" s="22"/>
     </row>
-    <row r="756">
+    <row r="756" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A756" s="22"/>
     </row>
-    <row r="757">
+    <row r="757" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A757" s="22"/>
     </row>
-    <row r="758">
+    <row r="758" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A758" s="22"/>
     </row>
-    <row r="759">
+    <row r="759" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A759" s="22"/>
     </row>
-    <row r="760">
+    <row r="760" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A760" s="22"/>
     </row>
-    <row r="761">
+    <row r="761" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A761" s="22"/>
     </row>
-    <row r="762">
+    <row r="762" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A762" s="22"/>
     </row>
-    <row r="763">
+    <row r="763" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A763" s="22"/>
     </row>
-    <row r="764">
+    <row r="764" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A764" s="22"/>
     </row>
-    <row r="765">
+    <row r="765" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A765" s="22"/>
     </row>
-    <row r="766">
+    <row r="766" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A766" s="22"/>
     </row>
-    <row r="767">
+    <row r="767" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A767" s="22"/>
     </row>
-    <row r="768">
+    <row r="768" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A768" s="22"/>
     </row>
-    <row r="769">
+    <row r="769" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A769" s="22"/>
     </row>
-    <row r="770">
+    <row r="770" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A770" s="22"/>
     </row>
-    <row r="771">
+    <row r="771" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A771" s="22"/>
     </row>
-    <row r="772">
+    <row r="772" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A772" s="22"/>
     </row>
-    <row r="773">
+    <row r="773" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A773" s="22"/>
     </row>
-    <row r="774">
+    <row r="774" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A774" s="22"/>
     </row>
-    <row r="775">
+    <row r="775" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A775" s="22"/>
     </row>
-    <row r="776">
+    <row r="776" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A776" s="22"/>
     </row>
-    <row r="777">
+    <row r="777" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A777" s="22"/>
     </row>
-    <row r="778">
+    <row r="778" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A778" s="22"/>
     </row>
-    <row r="779">
+    <row r="779" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A779" s="22"/>
     </row>
-    <row r="780">
+    <row r="780" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A780" s="22"/>
     </row>
-    <row r="781">
+    <row r="781" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A781" s="22"/>
     </row>
-    <row r="782">
+    <row r="782" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A782" s="22"/>
     </row>
-    <row r="783">
+    <row r="783" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A783" s="22"/>
     </row>
-    <row r="784">
+    <row r="784" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A784" s="22"/>
     </row>
-    <row r="785">
+    <row r="785" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A785" s="22"/>
     </row>
-    <row r="786">
+    <row r="786" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A786" s="22"/>
     </row>
-    <row r="787">
+    <row r="787" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A787" s="22"/>
     </row>
-    <row r="788">
+    <row r="788" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A788" s="22"/>
     </row>
-    <row r="789">
+    <row r="789" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A789" s="22"/>
     </row>
-    <row r="790">
+    <row r="790" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A790" s="22"/>
     </row>
-    <row r="791">
+    <row r="791" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A791" s="22"/>
     </row>
-    <row r="792">
+    <row r="792" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A792" s="22"/>
     </row>
-    <row r="793">
+    <row r="793" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A793" s="22"/>
     </row>
-    <row r="794">
+    <row r="794" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A794" s="22"/>
     </row>
-    <row r="795">
+    <row r="795" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A795" s="22"/>
     </row>
-    <row r="796">
+    <row r="796" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A796" s="22"/>
     </row>
-    <row r="797">
+    <row r="797" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A797" s="22"/>
     </row>
-    <row r="798">
+    <row r="798" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A798" s="22"/>
     </row>
-    <row r="799">
+    <row r="799" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A799" s="22"/>
     </row>
-    <row r="800">
+    <row r="800" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A800" s="22"/>
     </row>
-    <row r="801">
+    <row r="801" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A801" s="22"/>
     </row>
-    <row r="802">
+    <row r="802" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A802" s="22"/>
     </row>
-    <row r="803">
+    <row r="803" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A803" s="22"/>
     </row>
-    <row r="804">
+    <row r="804" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A804" s="22"/>
     </row>
-    <row r="805">
+    <row r="805" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A805" s="22"/>
     </row>
-    <row r="806">
+    <row r="806" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A806" s="22"/>
     </row>
-    <row r="807">
+    <row r="807" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A807" s="22"/>
     </row>
-    <row r="808">
+    <row r="808" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A808" s="22"/>
     </row>
-    <row r="809">
+    <row r="809" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A809" s="22"/>
     </row>
-    <row r="810">
+    <row r="810" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A810" s="22"/>
     </row>
-    <row r="811">
+    <row r="811" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A811" s="22"/>
     </row>
-    <row r="812">
+    <row r="812" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A812" s="22"/>
     </row>
-    <row r="813">
+    <row r="813" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A813" s="22"/>
     </row>
-    <row r="814">
+    <row r="814" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A814" s="22"/>
     </row>
-    <row r="815">
+    <row r="815" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A815" s="22"/>
     </row>
-    <row r="816">
+    <row r="816" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A816" s="22"/>
     </row>
-    <row r="817">
+    <row r="817" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A817" s="22"/>
     </row>
-    <row r="818">
+    <row r="818" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A818" s="22"/>
     </row>
-    <row r="819">
+    <row r="819" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A819" s="22"/>
     </row>
-    <row r="820">
+    <row r="820" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A820" s="22"/>
     </row>
-    <row r="821">
+    <row r="821" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A821" s="22"/>
     </row>
-    <row r="822">
+    <row r="822" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A822" s="22"/>
     </row>
-    <row r="823">
+    <row r="823" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A823" s="22"/>
     </row>
-    <row r="824">
+    <row r="824" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A824" s="22"/>
     </row>
-    <row r="825">
+    <row r="825" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A825" s="22"/>
     </row>
-    <row r="826">
+    <row r="826" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A826" s="22"/>
     </row>
-    <row r="827">
+    <row r="827" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A827" s="22"/>
     </row>
-    <row r="828">
+    <row r="828" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A828" s="22"/>
     </row>
-    <row r="829">
+    <row r="829" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A829" s="22"/>
     </row>
-    <row r="830">
+    <row r="830" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A830" s="22"/>
     </row>
-    <row r="831">
+    <row r="831" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A831" s="22"/>
     </row>
-    <row r="832">
+    <row r="832" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A832" s="22"/>
     </row>
-    <row r="833">
+    <row r="833" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A833" s="22"/>
     </row>
-    <row r="834">
+    <row r="834" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A834" s="22"/>
     </row>
-    <row r="835">
+    <row r="835" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A835" s="22"/>
     </row>
-    <row r="836">
+    <row r="836" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A836" s="22"/>
     </row>
-    <row r="837">
+    <row r="837" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A837" s="22"/>
     </row>
-    <row r="838">
+    <row r="838" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A838" s="22"/>
     </row>
-    <row r="839">
+    <row r="839" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A839" s="22"/>
     </row>
-    <row r="840">
+    <row r="840" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A840" s="22"/>
     </row>
-    <row r="841">
+    <row r="841" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A841" s="22"/>
     </row>
-    <row r="842">
+    <row r="842" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A842" s="22"/>
     </row>
-    <row r="843">
+    <row r="843" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A843" s="22"/>
     </row>
-    <row r="844">
+    <row r="844" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A844" s="22"/>
     </row>
-    <row r="845">
+    <row r="845" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A845" s="22"/>
     </row>
-    <row r="846">
+    <row r="846" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A846" s="22"/>
     </row>
-    <row r="847">
+    <row r="847" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A847" s="22"/>
     </row>
-    <row r="848">
+    <row r="848" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A848" s="22"/>
     </row>
-    <row r="849">
+    <row r="849" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A849" s="22"/>
     </row>
-    <row r="850">
+    <row r="850" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A850" s="22"/>
     </row>
-    <row r="851">
+    <row r="851" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A851" s="22"/>
     </row>
-    <row r="852">
+    <row r="852" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A852" s="22"/>
     </row>
-    <row r="853">
+    <row r="853" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A853" s="22"/>
     </row>
-    <row r="854">
+    <row r="854" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A854" s="22"/>
     </row>
-    <row r="855">
+    <row r="855" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A855" s="22"/>
     </row>
-    <row r="856">
+    <row r="856" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A856" s="22"/>
     </row>
-    <row r="857">
+    <row r="857" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A857" s="22"/>
     </row>
-    <row r="858">
+    <row r="858" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A858" s="22"/>
     </row>
-    <row r="859">
+    <row r="859" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A859" s="22"/>
     </row>
-    <row r="860">
+    <row r="860" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A860" s="22"/>
     </row>
-    <row r="861">
+    <row r="861" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A861" s="22"/>
     </row>
-    <row r="862">
+    <row r="862" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A862" s="22"/>
     </row>
-    <row r="863">
+    <row r="863" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A863" s="22"/>
     </row>
-    <row r="864">
+    <row r="864" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A864" s="22"/>
     </row>
-    <row r="865">
+    <row r="865" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A865" s="22"/>
     </row>
-    <row r="866">
+    <row r="866" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A866" s="22"/>
     </row>
-    <row r="867">
+    <row r="867" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A867" s="22"/>
     </row>
-    <row r="868">
+    <row r="868" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A868" s="22"/>
     </row>
-    <row r="869">
+    <row r="869" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A869" s="22"/>
     </row>
-    <row r="870">
+    <row r="870" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A870" s="22"/>
     </row>
-    <row r="871">
+    <row r="871" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A871" s="22"/>
     </row>
-    <row r="872">
+    <row r="872" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A872" s="22"/>
     </row>
-    <row r="873">
+    <row r="873" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A873" s="22"/>
     </row>
-    <row r="874">
+    <row r="874" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A874" s="22"/>
     </row>
-    <row r="875">
+    <row r="875" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A875" s="22"/>
     </row>
-    <row r="876">
+    <row r="876" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A876" s="22"/>
     </row>
-    <row r="877">
+    <row r="877" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A877" s="22"/>
     </row>
-    <row r="878">
+    <row r="878" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A878" s="22"/>
     </row>
-    <row r="879">
+    <row r="879" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A879" s="22"/>
     </row>
-    <row r="880">
+    <row r="880" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A880" s="22"/>
     </row>
-    <row r="881">
+    <row r="881" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A881" s="22"/>
     </row>
-    <row r="882">
+    <row r="882" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A882" s="22"/>
     </row>
-    <row r="883">
+    <row r="883" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A883" s="22"/>
     </row>
-    <row r="884">
+    <row r="884" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A884" s="22"/>
     </row>
-    <row r="885">
+    <row r="885" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A885" s="22"/>
     </row>
-    <row r="886">
+    <row r="886" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A886" s="22"/>
     </row>
-    <row r="887">
+    <row r="887" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A887" s="22"/>
     </row>
-    <row r="888">
+    <row r="888" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A888" s="22"/>
     </row>
-    <row r="889">
+    <row r="889" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A889" s="22"/>
     </row>
-    <row r="890">
+    <row r="890" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A890" s="22"/>
     </row>
-    <row r="891">
+    <row r="891" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A891" s="22"/>
     </row>
-    <row r="892">
+    <row r="892" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A892" s="22"/>
     </row>
-    <row r="893">
+    <row r="893" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A893" s="22"/>
     </row>
-    <row r="894">
+    <row r="894" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A894" s="22"/>
     </row>
-    <row r="895">
+    <row r="895" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A895" s="22"/>
     </row>
-    <row r="896">
+    <row r="896" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A896" s="22"/>
     </row>
-    <row r="897">
+    <row r="897" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A897" s="22"/>
     </row>
-    <row r="898">
+    <row r="898" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A898" s="22"/>
     </row>
-    <row r="899">
+    <row r="899" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A899" s="22"/>
     </row>
-    <row r="900">
+    <row r="900" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A900" s="22"/>
     </row>
-    <row r="901">
+    <row r="901" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A901" s="22"/>
     </row>
-    <row r="902">
+    <row r="902" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A902" s="22"/>
     </row>
-    <row r="903">
+    <row r="903" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A903" s="22"/>
     </row>
-    <row r="904">
+    <row r="904" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A904" s="22"/>
     </row>
-    <row r="905">
+    <row r="905" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A905" s="22"/>
     </row>
-    <row r="906">
+    <row r="906" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A906" s="22"/>
     </row>
-    <row r="907">
+    <row r="907" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A907" s="22"/>
     </row>
-    <row r="908">
+    <row r="908" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A908" s="22"/>
     </row>
-    <row r="909">
+    <row r="909" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A909" s="22"/>
     </row>
-    <row r="910">
+    <row r="910" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A910" s="22"/>
     </row>
-    <row r="911">
+    <row r="911" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A911" s="22"/>
     </row>
-    <row r="912">
+    <row r="912" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A912" s="22"/>
     </row>
-    <row r="913">
+    <row r="913" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A913" s="22"/>
     </row>
-    <row r="914">
+    <row r="914" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A914" s="22"/>
     </row>
-    <row r="915">
+    <row r="915" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A915" s="22"/>
     </row>
-    <row r="916">
+    <row r="916" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A916" s="22"/>
     </row>
-    <row r="917">
+    <row r="917" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A917" s="22"/>
     </row>
-    <row r="918">
+    <row r="918" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A918" s="22"/>
     </row>
-    <row r="919">
+    <row r="919" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A919" s="22"/>
     </row>
-    <row r="920">
+    <row r="920" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A920" s="22"/>
     </row>
-    <row r="921">
+    <row r="921" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A921" s="22"/>
     </row>
-    <row r="922">
+    <row r="922" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A922" s="22"/>
     </row>
-    <row r="923">
+    <row r="923" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A923" s="22"/>
     </row>
-    <row r="924">
+    <row r="924" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A924" s="22"/>
     </row>
-    <row r="925">
+    <row r="925" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A925" s="22"/>
     </row>
-    <row r="926">
+    <row r="926" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A926" s="22"/>
     </row>
-    <row r="927">
+    <row r="927" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A927" s="22"/>
     </row>
-    <row r="928">
+    <row r="928" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A928" s="22"/>
     </row>
-    <row r="929">
+    <row r="929" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A929" s="22"/>
     </row>
-    <row r="930">
+    <row r="930" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A930" s="22"/>
     </row>
-    <row r="931">
+    <row r="931" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A931" s="22"/>
     </row>
-    <row r="932">
+    <row r="932" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A932" s="22"/>
     </row>
-    <row r="933">
+    <row r="933" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A933" s="22"/>
     </row>
-    <row r="934">
+    <row r="934" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A934" s="22"/>
     </row>
-    <row r="935">
+    <row r="935" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A935" s="22"/>
     </row>
-    <row r="936">
+    <row r="936" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A936" s="22"/>
     </row>
-    <row r="937">
+    <row r="937" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A937" s="22"/>
     </row>
-    <row r="938">
+    <row r="938" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A938" s="22"/>
     </row>
-    <row r="939">
+    <row r="939" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A939" s="22"/>
     </row>
-    <row r="940">
+    <row r="940" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A940" s="22"/>
     </row>
-    <row r="941">
+    <row r="941" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A941" s="22"/>
     </row>
-    <row r="942">
+    <row r="942" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A942" s="22"/>
     </row>
-    <row r="943">
+    <row r="943" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A943" s="22"/>
     </row>
-    <row r="944">
+    <row r="944" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A944" s="22"/>
     </row>
-    <row r="945">
+    <row r="945" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A945" s="22"/>
     </row>
-    <row r="946">
+    <row r="946" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A946" s="22"/>
     </row>
-    <row r="947">
+    <row r="947" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A947" s="22"/>
     </row>
-    <row r="948">
+    <row r="948" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A948" s="22"/>
     </row>
-    <row r="949">
+    <row r="949" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A949" s="22"/>
     </row>
-    <row r="950">
+    <row r="950" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A950" s="22"/>
     </row>
-    <row r="951">
+    <row r="951" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A951" s="22"/>
     </row>
-    <row r="952">
+    <row r="952" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A952" s="22"/>
     </row>
-    <row r="953">
+    <row r="953" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A953" s="22"/>
     </row>
-    <row r="954">
+    <row r="954" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A954" s="22"/>
     </row>
-    <row r="955">
+    <row r="955" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A955" s="22"/>
     </row>
-    <row r="956">
+    <row r="956" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A956" s="22"/>
     </row>
-    <row r="957">
+    <row r="957" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A957" s="22"/>
     </row>
-    <row r="958">
+    <row r="958" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A958" s="22"/>
     </row>
-    <row r="959">
+    <row r="959" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A959" s="22"/>
     </row>
-    <row r="960">
+    <row r="960" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A960" s="22"/>
     </row>
-    <row r="961">
+    <row r="961" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A961" s="22"/>
     </row>
-    <row r="962">
+    <row r="962" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A962" s="22"/>
     </row>
-    <row r="963">
+    <row r="963" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A963" s="22"/>
     </row>
-    <row r="964">
+    <row r="964" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A964" s="22"/>
     </row>
-    <row r="965">
+    <row r="965" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A965" s="22"/>
     </row>
-    <row r="966">
+    <row r="966" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A966" s="22"/>
     </row>
-    <row r="967">
+    <row r="967" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A967" s="22"/>
     </row>
-    <row r="968">
+    <row r="968" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A968" s="22"/>
     </row>
-    <row r="969">
+    <row r="969" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A969" s="22"/>
     </row>
-    <row r="970">
+    <row r="970" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A970" s="22"/>
     </row>
-    <row r="971">
+    <row r="971" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A971" s="22"/>
     </row>
-    <row r="972">
+    <row r="972" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A972" s="22"/>
     </row>
-    <row r="973">
+    <row r="973" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A973" s="22"/>
     </row>
-    <row r="974">
+    <row r="974" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A974" s="22"/>
     </row>
-    <row r="975">
+    <row r="975" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A975" s="22"/>
     </row>
-    <row r="976">
+    <row r="976" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A976" s="22"/>
     </row>
-    <row r="977">
+    <row r="977" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A977" s="22"/>
     </row>
-    <row r="978">
+    <row r="978" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A978" s="22"/>
     </row>
-    <row r="979">
+    <row r="979" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A979" s="22"/>
     </row>
-    <row r="980">
+    <row r="980" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A980" s="22"/>
     </row>
-    <row r="981">
+    <row r="981" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A981" s="22"/>
     </row>
-    <row r="982">
+    <row r="982" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A982" s="22"/>
     </row>
-    <row r="983">
+    <row r="983" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A983" s="22"/>
     </row>
-    <row r="984">
+    <row r="984" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A984" s="22"/>
     </row>
-    <row r="985">
+    <row r="985" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A985" s="22"/>
     </row>
-    <row r="986">
+    <row r="986" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A986" s="22"/>
     </row>
-    <row r="987">
+    <row r="987" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A987" s="22"/>
     </row>
-    <row r="988">
+    <row r="988" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A988" s="22"/>
     </row>
-    <row r="989">
+    <row r="989" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A989" s="22"/>
     </row>
-    <row r="990">
+    <row r="990" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A990" s="22"/>
     </row>
-    <row r="991">
+    <row r="991" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A991" s="22"/>
     </row>
-    <row r="992">
+    <row r="992" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A992" s="22"/>
     </row>
-    <row r="993">
+    <row r="993" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A993" s="22"/>
     </row>
-    <row r="994">
+    <row r="994" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A994" s="22"/>
     </row>
-    <row r="995">
+    <row r="995" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A995" s="22"/>
     </row>
-    <row r="996">
+    <row r="996" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A996" s="22"/>
     </row>
-    <row r="997">
+    <row r="997" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A997" s="22"/>
     </row>
-    <row r="998">
+    <row r="998" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A998" s="22"/>
     </row>
-    <row r="999">
+    <row r="999" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A999" s="22"/>
     </row>
-    <row r="1000">
+    <row r="1000" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1000" s="22"/>
     </row>
-    <row r="1001">
+    <row r="1001" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1001" s="22"/>
     </row>
-    <row r="1002">
+    <row r="1002" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1002" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2"/>
-    <hyperlink r:id="rId2" ref="A4"/>
-    <hyperlink r:id="rId3" ref="D4"/>
-    <hyperlink r:id="rId4" ref="A5"/>
-    <hyperlink r:id="rId5" ref="D5"/>
-    <hyperlink r:id="rId6" ref="A6"/>
-    <hyperlink r:id="rId7" ref="D6"/>
-    <hyperlink r:id="rId8" ref="A7"/>
-    <hyperlink r:id="rId9" ref="D7"/>
-    <hyperlink r:id="rId10" ref="A8"/>
-    <hyperlink r:id="rId11" ref="D8"/>
-    <hyperlink r:id="rId12" ref="A9"/>
-    <hyperlink r:id="rId13" ref="D9"/>
-    <hyperlink r:id="rId14" ref="A10"/>
-    <hyperlink r:id="rId15" ref="D10"/>
-    <hyperlink r:id="rId16" ref="A11"/>
-    <hyperlink r:id="rId17" ref="D11"/>
-    <hyperlink r:id="rId18" ref="A12"/>
-    <hyperlink r:id="rId19" ref="D12"/>
-    <hyperlink r:id="rId20" ref="A13"/>
-    <hyperlink r:id="rId21" ref="D13"/>
-    <hyperlink r:id="rId22" ref="A14"/>
-    <hyperlink r:id="rId23" ref="D14"/>
-    <hyperlink r:id="rId24" ref="A15"/>
-    <hyperlink r:id="rId25" ref="D15"/>
-    <hyperlink r:id="rId26" ref="A16"/>
-    <hyperlink r:id="rId27" ref="D16"/>
-    <hyperlink r:id="rId28" ref="A17"/>
-    <hyperlink r:id="rId29" ref="D17"/>
-    <hyperlink r:id="rId30" ref="A18"/>
-    <hyperlink r:id="rId31" ref="D18"/>
-    <hyperlink r:id="rId32" ref="A19"/>
-    <hyperlink r:id="rId33" ref="D19"/>
-    <hyperlink r:id="rId34" ref="A20"/>
-    <hyperlink r:id="rId35" ref="D20"/>
-    <hyperlink r:id="rId36" ref="A21"/>
-    <hyperlink r:id="rId37" ref="D21"/>
-    <hyperlink r:id="rId38" ref="A22"/>
-    <hyperlink r:id="rId39" ref="D22"/>
-    <hyperlink r:id="rId40" ref="A23"/>
-    <hyperlink r:id="rId41" ref="D23"/>
-    <hyperlink r:id="rId42" ref="A24"/>
-    <hyperlink r:id="rId43" ref="D24"/>
-    <hyperlink r:id="rId44" ref="A25"/>
-    <hyperlink r:id="rId45" ref="D25"/>
-    <hyperlink r:id="rId46" ref="A26"/>
-    <hyperlink r:id="rId47" ref="D26"/>
-    <hyperlink r:id="rId48" ref="A27"/>
-    <hyperlink r:id="rId49" ref="D27"/>
-    <hyperlink r:id="rId50" ref="A28"/>
-    <hyperlink r:id="rId51" ref="D28"/>
-    <hyperlink r:id="rId52" ref="A29"/>
-    <hyperlink r:id="rId53" ref="D29"/>
-    <hyperlink r:id="rId54" ref="A30"/>
-    <hyperlink r:id="rId55" ref="D30"/>
-    <hyperlink r:id="rId56" ref="A31"/>
-    <hyperlink r:id="rId57" ref="D31"/>
-    <hyperlink r:id="rId58" ref="A32"/>
-    <hyperlink r:id="rId59" ref="D32"/>
-    <hyperlink r:id="rId60" ref="A33"/>
-    <hyperlink r:id="rId61" ref="D33"/>
-    <hyperlink r:id="rId62" ref="A34"/>
-    <hyperlink r:id="rId63" ref="D34"/>
-    <hyperlink r:id="rId64" ref="A35"/>
-    <hyperlink r:id="rId65" ref="D35"/>
-    <hyperlink r:id="rId66" ref="A36"/>
-    <hyperlink r:id="rId67" ref="D36"/>
-    <hyperlink r:id="rId68" ref="A37"/>
-    <hyperlink r:id="rId69" ref="D37"/>
-    <hyperlink r:id="rId70" ref="A38"/>
-    <hyperlink r:id="rId71" ref="D38"/>
-    <hyperlink r:id="rId72" ref="A39"/>
-    <hyperlink r:id="rId73" ref="D39"/>
-    <hyperlink r:id="rId74" ref="A40"/>
-    <hyperlink r:id="rId75" ref="D40"/>
-    <hyperlink r:id="rId76" ref="A41"/>
-    <hyperlink r:id="rId77" ref="D41"/>
-    <hyperlink r:id="rId78" ref="A42"/>
-    <hyperlink r:id="rId79" ref="D42"/>
-    <hyperlink r:id="rId80" ref="A43"/>
-    <hyperlink r:id="rId81" ref="D43"/>
-    <hyperlink r:id="rId82" ref="A44"/>
-    <hyperlink r:id="rId83" ref="D44"/>
-    <hyperlink r:id="rId84" ref="A45"/>
-    <hyperlink r:id="rId85" ref="D45"/>
-    <hyperlink r:id="rId86" ref="A46"/>
-    <hyperlink r:id="rId87" ref="D46"/>
-    <hyperlink r:id="rId88" ref="A47"/>
-    <hyperlink r:id="rId89" ref="D47"/>
-    <hyperlink r:id="rId90" ref="A48"/>
-    <hyperlink r:id="rId91" ref="D48"/>
-    <hyperlink r:id="rId92" ref="A49"/>
-    <hyperlink r:id="rId93" ref="D49"/>
-    <hyperlink r:id="rId94" ref="A50"/>
-    <hyperlink r:id="rId95" ref="D50"/>
-    <hyperlink r:id="rId96" ref="A51"/>
-    <hyperlink r:id="rId97" ref="D51"/>
-    <hyperlink r:id="rId98" ref="A52"/>
-    <hyperlink r:id="rId99" ref="D52"/>
-    <hyperlink r:id="rId100" ref="A53"/>
-    <hyperlink r:id="rId101" ref="D53"/>
-    <hyperlink r:id="rId102" ref="A54"/>
-    <hyperlink r:id="rId103" ref="D54"/>
-    <hyperlink r:id="rId104" ref="A55"/>
-    <hyperlink r:id="rId105" ref="D55"/>
-    <hyperlink r:id="rId106" ref="A56"/>
-    <hyperlink r:id="rId107" ref="D56"/>
-    <hyperlink r:id="rId108" ref="A57"/>
-    <hyperlink r:id="rId109" ref="D57"/>
-    <hyperlink r:id="rId110" ref="A58"/>
-    <hyperlink r:id="rId111" ref="D58"/>
-    <hyperlink r:id="rId112" ref="A59"/>
-    <hyperlink r:id="rId113" ref="D59"/>
-    <hyperlink r:id="rId114" ref="A60"/>
-    <hyperlink r:id="rId115" ref="D60"/>
-    <hyperlink r:id="rId116" ref="A61"/>
-    <hyperlink r:id="rId117" ref="D61"/>
-    <hyperlink r:id="rId118" ref="A62"/>
-    <hyperlink r:id="rId119" ref="D62"/>
-    <hyperlink r:id="rId120" ref="A63"/>
-    <hyperlink r:id="rId121" ref="D63"/>
-    <hyperlink r:id="rId122" ref="A64"/>
-    <hyperlink r:id="rId123" ref="D64"/>
-    <hyperlink r:id="rId124" ref="A65"/>
-    <hyperlink r:id="rId125" ref="D65"/>
-    <hyperlink r:id="rId126" ref="A66"/>
-    <hyperlink r:id="rId127" ref="D66"/>
-    <hyperlink r:id="rId128" ref="A67"/>
-    <hyperlink r:id="rId129" ref="D67"/>
-    <hyperlink r:id="rId130" ref="A68"/>
-    <hyperlink r:id="rId131" ref="D68"/>
-    <hyperlink r:id="rId132" ref="A69"/>
-    <hyperlink r:id="rId133" ref="D69"/>
-    <hyperlink r:id="rId134" ref="A70"/>
-    <hyperlink r:id="rId135" ref="D70"/>
-    <hyperlink r:id="rId136" ref="A71"/>
-    <hyperlink r:id="rId137" ref="D71"/>
-    <hyperlink r:id="rId138" ref="A72"/>
-    <hyperlink r:id="rId139" ref="D72"/>
-    <hyperlink r:id="rId140" ref="A73"/>
-    <hyperlink r:id="rId141" ref="D73"/>
-    <hyperlink r:id="rId142" ref="A74"/>
-    <hyperlink r:id="rId143" ref="D74"/>
-    <hyperlink r:id="rId144" ref="A75"/>
-    <hyperlink r:id="rId145" ref="D75"/>
-    <hyperlink r:id="rId146" ref="A76"/>
-    <hyperlink r:id="rId147" ref="D76"/>
-    <hyperlink r:id="rId148" ref="A77"/>
-    <hyperlink r:id="rId149" ref="D77"/>
-    <hyperlink r:id="rId150" ref="A78"/>
-    <hyperlink r:id="rId151" ref="D78"/>
-    <hyperlink r:id="rId152" ref="A79"/>
-    <hyperlink r:id="rId153" ref="D79"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D6" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A7" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D7" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A8" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D8" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A9" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D9" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A10" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D10" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A11" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="D11" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A12" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D12" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A13" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="D13" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A14" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="D14" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A15" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="D15" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A16" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="D16" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="A17" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="D17" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="A18" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="D18" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="A19" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="D19" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="A20" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="D20" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="A21" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="D21" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="A22" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="D22" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="A23" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="D23" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="A24" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="D24" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="A25" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="D25" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="A26" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="D26" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="A27" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="D27" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="A28" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="D28" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="A29" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="D29" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="A30" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D30" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="A31" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="D31" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="A32" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="D32" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="A33" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="D33" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="A34" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="D34" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="A35" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="D35" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="A36" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D36" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="A37" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D37" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="A38" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="D38" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="A39" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D39" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="A40" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="D40" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="A41" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="D41" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="A42" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="D42" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="A43" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D43" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="A44" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="D44" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="A45" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="D45" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="A46" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="D46" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="A47" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="D47" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="A48" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="D48" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="A49" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="D49" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="A50" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D50" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="A51" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="D51" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="A52" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="D52" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="A53" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D53" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="A54" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="D54" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="A55" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="D55" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="A56" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="D56" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="A57" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="D57" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="A58" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D58" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="A59" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="D59" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="A60" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D60" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="A61" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="D61" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="A62" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="D62" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="A63" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="D63" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="A64" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="D64" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="A65" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="D65" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="A66" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="D66" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="A67" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="D67" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="A68" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="D68" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="A69" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="D69" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="A70" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="D70" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="A71" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="D71" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="A72" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="D72" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="A73" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="D73" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="A74" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="D74" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="A75" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="D75" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="A76" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="D76" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="A77" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="D77" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="A78" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="D78" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="A79" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="D79" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
   </hyperlinks>
-  <drawing r:id="rId154"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/java/vijay/projects/betavarient/LeetCode/SeventyFiveChallenge/Leetcode 75 Questions (NeetCode on yt).xlsx
+++ b/src/main/java/vijay/projects/betavarient/LeetCode/SeventyFiveChallenge/Leetcode 75 Questions (NeetCode on yt).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gs1-vijayp\Documents\Learning\BetaVarient\src\main\java\vijay\projects\betavarient\LeetCode\SeventyFiveChallenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27AD14A-8432-4BAA-BB32-AC768F5DB0B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F9B0C1-6D77-484C-BDC1-80AC2CD988C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1497,8 +1497,8 @@
   </sheetPr>
   <dimension ref="A1:E1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1769,7 +1769,7 @@
       <c r="A17" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="23" t="s">
         <v>49</v>
       </c>
       <c r="C17" s="11" t="s">
@@ -1786,7 +1786,7 @@
       <c r="A18" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="23" t="s">
         <v>49</v>
       </c>
       <c r="C18" s="11" t="s">
@@ -1803,7 +1803,7 @@
       <c r="A19" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="23" t="s">
         <v>70</v>
       </c>
       <c r="C19" s="11" t="s">
